--- a/medicine/Enfance/Jeunesse,_j'écoute/Jeunesse,_j'écoute.xlsx
+++ b/medicine/Enfance/Jeunesse,_j'écoute/Jeunesse,_j'écoute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jeunesse,_j%27%C3%A9coute</t>
+          <t>Jeunesse,_j'écoute</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeunesse, J'écoute (en anglais Kids Help Phone) est un organisme sans but lucratif canadien, fondé en 1989, offrant un service de consultation par le téléphone et par le web pancanadien aux jeunes âgés de 4 à 21 ans.  Ceux-ci peuvent y trouver une oreille attentive, obtenir de l'information sur différents sujets, et être référés au besoin à un organisme d'aide local.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jeunesse,_j%27%C3%A9coute</t>
+          <t>Jeunesse,_j'écoute</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Les services offerts</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les intervenants de Jeunesse, J'écoute ont une formation professionnelle. La ligne d'intervention téléphonique est ouverte en tout temps. Les appels sont entièrement gratuits, anonymes et confidentiels. Les services sont offerts en anglais et en français.
 Le site web est également en fonction en tout temps, mais les intervenants peuvent prendre jusqu'à 36 h pour répondre[réf. nécessaire].
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jeunesse,_j%27%C3%A9coute</t>
+          <t>Jeunesse,_j'écoute</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Financement de l'organisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeunesse, J'écoute est une organisation non gouvernementale qui subsiste grâce aux dons et aux collectes de fonds. La principale levée de fonds est la "Marche Bell pour Jeunesse, J'écoute" qui a lieu dans plusieurs villes canadiennes en mai.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jeunesse,_j%27%C3%A9coute</t>
+          <t>Jeunesse,_j'écoute</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Comment les joindre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour joindre Jeunesse, J'écoute, il suffit de signaler le 1-800-668-6868, peu importe où l'on se trouve au Canada. 
 Il est aussi possible de visiter le site web de Jeunesse, J'écoutepour poser sa question, se renseigner ou s'exprimer.
